--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>84.76851766666665</v>
+        <v>95.63567833333333</v>
       </c>
       <c r="H2">
-        <v>254.305553</v>
+        <v>286.907035</v>
       </c>
       <c r="I2">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="J2">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>69.03718366666666</v>
+        <v>14.04766166666666</v>
       </c>
       <c r="N2">
-        <v>207.111551</v>
+        <v>42.142985</v>
       </c>
       <c r="O2">
-        <v>0.7412254785079075</v>
+        <v>0.3682244445652549</v>
       </c>
       <c r="P2">
-        <v>0.7412254785079075</v>
+        <v>0.3682244445652549</v>
       </c>
       <c r="Q2">
-        <v>5852.179723304744</v>
+        <v>1343.45765248883</v>
       </c>
       <c r="R2">
-        <v>52669.6175097427</v>
+        <v>12091.11887239947</v>
       </c>
       <c r="S2">
-        <v>0.190623986015224</v>
+        <v>0.1034279210256359</v>
       </c>
       <c r="T2">
-        <v>0.1906239860152241</v>
+        <v>0.1034279210256359</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>84.76851766666665</v>
+        <v>95.63567833333333</v>
       </c>
       <c r="H3">
-        <v>254.305553</v>
+        <v>286.907035</v>
       </c>
       <c r="I3">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="J3">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>39.460683</v>
       </c>
       <c r="O3">
-        <v>0.1412246854301422</v>
+        <v>0.3447878236399392</v>
       </c>
       <c r="P3">
-        <v>0.1412246854301422</v>
+        <v>0.3447878236399392</v>
       </c>
       <c r="Q3">
-        <v>1115.007868008078</v>
+        <v>1257.949728733878</v>
       </c>
       <c r="R3">
-        <v>10035.0708120727</v>
+        <v>11321.54755860491</v>
       </c>
       <c r="S3">
-        <v>0.03631932959810238</v>
+        <v>0.09684497680792317</v>
       </c>
       <c r="T3">
-        <v>0.03631932959810238</v>
+        <v>0.09684497680792319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>84.76851766666665</v>
+        <v>95.63567833333333</v>
       </c>
       <c r="H4">
-        <v>254.305553</v>
+        <v>286.907035</v>
       </c>
       <c r="I4">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="J4">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>32.84551</v>
       </c>
       <c r="O4">
-        <v>0.1175498360619503</v>
+        <v>0.2869877317948059</v>
       </c>
       <c r="P4">
-        <v>0.1175498360619503</v>
+        <v>0.2869877317948059</v>
       </c>
       <c r="Q4">
-        <v>928.0883982352254</v>
+        <v>1047.067543018095</v>
       </c>
       <c r="R4">
-        <v>8352.795584117028</v>
+        <v>9423.607887162852</v>
       </c>
       <c r="S4">
-        <v>0.03023077181679211</v>
+        <v>0.08060992391323811</v>
       </c>
       <c r="T4">
-        <v>0.03023077181679211</v>
+        <v>0.08060992391323812</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>401.04908</v>
       </c>
       <c r="I5">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="J5">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.03718366666666</v>
+        <v>14.04766166666666</v>
       </c>
       <c r="N5">
-        <v>207.111551</v>
+        <v>42.142985</v>
       </c>
       <c r="O5">
-        <v>0.7412254785079075</v>
+        <v>0.3682244445652549</v>
       </c>
       <c r="P5">
-        <v>0.7412254785079075</v>
+        <v>0.3682244445652549</v>
       </c>
       <c r="Q5">
-        <v>9229.099665102565</v>
+        <v>1877.933929189311</v>
       </c>
       <c r="R5">
-        <v>83061.89698592307</v>
+        <v>16901.4053627038</v>
       </c>
       <c r="S5">
-        <v>0.3006209393207331</v>
+        <v>0.144575306679545</v>
       </c>
       <c r="T5">
-        <v>0.3006209393207331</v>
+        <v>0.144575306679545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>401.04908</v>
       </c>
       <c r="I6">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="J6">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>39.460683</v>
       </c>
       <c r="O6">
-        <v>0.1412246854301422</v>
+        <v>0.3447878236399392</v>
       </c>
       <c r="P6">
-        <v>0.1412246854301422</v>
+        <v>0.3447878236399392</v>
       </c>
       <c r="Q6">
         <v>1758.407845924627</v>
@@ -818,10 +818,10 @@
         <v>15825.67061332164</v>
       </c>
       <c r="S6">
-        <v>0.05727689997212027</v>
+        <v>0.1353734280215155</v>
       </c>
       <c r="T6">
-        <v>0.05727689997212028</v>
+        <v>0.1353734280215155</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>401.04908</v>
       </c>
       <c r="I7">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="J7">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>32.84551</v>
       </c>
       <c r="O7">
-        <v>0.1175498360619503</v>
+        <v>0.2869877317948059</v>
       </c>
       <c r="P7">
-        <v>0.1175498360619503</v>
+        <v>0.2869877317948059</v>
       </c>
       <c r="Q7">
         <v>1463.629063070089</v>
@@ -880,10 +880,10 @@
         <v>13172.6615676308</v>
       </c>
       <c r="S7">
-        <v>0.04767502353680182</v>
+        <v>0.1126794810879215</v>
       </c>
       <c r="T7">
-        <v>0.04767502353680183</v>
+        <v>0.1126794810879215</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>333.49131</v>
       </c>
       <c r="I8">
-        <v>0.3372530497402263</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="J8">
-        <v>0.3372530497402264</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>69.03718366666666</v>
+        <v>14.04766166666666</v>
       </c>
       <c r="N8">
-        <v>207.111551</v>
+        <v>42.142985</v>
       </c>
       <c r="O8">
-        <v>0.7412254785079075</v>
+        <v>0.3682244445652549</v>
       </c>
       <c r="P8">
-        <v>0.7412254785079075</v>
+        <v>0.3682244445652549</v>
       </c>
       <c r="Q8">
-        <v>7674.43360656909</v>
+        <v>1561.59103055115</v>
       </c>
       <c r="R8">
-        <v>69069.9024591218</v>
+        <v>14054.31927496035</v>
       </c>
       <c r="S8">
-        <v>0.2499805531719504</v>
+        <v>0.1202212168600741</v>
       </c>
       <c r="T8">
-        <v>0.2499805531719504</v>
+        <v>0.1202212168600741</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>333.49131</v>
       </c>
       <c r="I9">
-        <v>0.3372530497402263</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="J9">
-        <v>0.3372530497402264</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>39.460683</v>
       </c>
       <c r="O9">
-        <v>0.1412246854301422</v>
+        <v>0.3447878236399392</v>
       </c>
       <c r="P9">
-        <v>0.1412246854301422</v>
+        <v>0.3447878236399392</v>
       </c>
       <c r="Q9">
         <v>1462.19942968497</v>
@@ -1004,10 +1004,10 @@
         <v>13159.79486716473</v>
       </c>
       <c r="S9">
-        <v>0.04762845585991957</v>
+        <v>0.1125694188105005</v>
       </c>
       <c r="T9">
-        <v>0.04762845585991957</v>
+        <v>0.1125694188105005</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>333.49131</v>
       </c>
       <c r="I10">
-        <v>0.3372530497402263</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="J10">
-        <v>0.3372530497402264</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>32.84551</v>
       </c>
       <c r="O10">
-        <v>0.1175498360619503</v>
+        <v>0.2869877317948059</v>
       </c>
       <c r="P10">
-        <v>0.1175498360619503</v>
+        <v>0.2869877317948059</v>
       </c>
       <c r="Q10">
         <v>1217.0769063909</v>
@@ -1066,10 +1066,10 @@
         <v>10953.6921575181</v>
       </c>
       <c r="S10">
-        <v>0.03964404070835637</v>
+        <v>0.09369832679364624</v>
       </c>
       <c r="T10">
-        <v>0.03964404070835638</v>
+        <v>0.09369832679364626</v>
       </c>
     </row>
   </sheetData>
